--- a/uploads/last_uploaded.xlsx
+++ b/uploads/last_uploaded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddique\Documents\1 Siddique\S2\Client_Mailer\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B428128D-56DE-436E-BDA8-BD117FB4A4B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D60783A7-537A-46F9-8B8B-A8CEA63ED291}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="313" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="119">
   <si>
     <t>Client Name</t>
   </si>
@@ -384,16 +384,29 @@
   </si>
   <si>
     <t>Invoice Value</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>₹</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  <numFmts count="5">
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="170" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="172" formatCode="&quot;$&quot;#,##0"/>
+    <numFmt numFmtId="177" formatCode="[$₹-4009]\ #,##0.00;[Red][$₹-4009]\ #,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,6 +418,26 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -439,17 +472,38 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="7" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="7" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -750,29 +804,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:C1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.36328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.26953125" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7265625" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.81640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -781,18 +837,21 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8"/>
+      <c r="H1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>55</v>
       </c>
@@ -805,18 +864,21 @@
       <c r="D2" t="s">
         <v>7</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="s">
+        <v>117</v>
+      </c>
+      <c r="F2" s="7">
         <v>53140</v>
       </c>
-      <c r="F2">
-        <v>0</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G33" si="0">E2-F2</f>
+      <c r="G2" s="9">
+        <v>0</v>
+      </c>
+      <c r="H2" s="5">
+        <f>F2-G2</f>
         <v>53140</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -829,18 +891,21 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F3" s="7">
         <v>35621</v>
       </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
+      <c r="G3" s="9">
+        <v>0</v>
+      </c>
+      <c r="H3" s="5">
+        <f t="shared" ref="H3:H48" si="0">F3-G3</f>
         <v>35621</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>55</v>
       </c>
@@ -853,18 +918,21 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7">
         <v>21365</v>
       </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
         <f t="shared" si="0"/>
         <v>21365</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>55</v>
       </c>
@@ -877,18 +945,21 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7">
         <v>29367</v>
       </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
         <f t="shared" si="0"/>
         <v>29367</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>55</v>
       </c>
@@ -901,18 +972,21 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="7">
         <v>6909</v>
       </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
         <f t="shared" si="0"/>
         <v>6909</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>55</v>
       </c>
@@ -925,18 +999,21 @@
       <c r="D7" t="s">
         <v>12</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="7">
         <v>1201</v>
       </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
         <f t="shared" si="0"/>
         <v>1201</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>55</v>
       </c>
@@ -949,18 +1026,21 @@
       <c r="D8" t="s">
         <v>13</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="7">
         <v>6696</v>
       </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
         <f t="shared" si="0"/>
         <v>6696</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>55</v>
       </c>
@@ -973,18 +1053,21 @@
       <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="7">
         <v>33883</v>
       </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
         <f t="shared" si="0"/>
         <v>33883</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>55</v>
       </c>
@@ -997,18 +1080,21 @@
       <c r="D10" t="s">
         <v>15</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="7">
         <v>19589</v>
       </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
         <f t="shared" si="0"/>
         <v>19589</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>55</v>
       </c>
@@ -1021,18 +1107,21 @@
       <c r="D11" t="s">
         <v>16</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="7">
         <v>22832</v>
       </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
         <f t="shared" si="0"/>
         <v>22832</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>55</v>
       </c>
@@ -1045,18 +1134,21 @@
       <c r="D12" t="s">
         <v>17</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="7">
         <v>179</v>
       </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>55</v>
       </c>
@@ -1069,18 +1161,21 @@
       <c r="D13" t="s">
         <v>19</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="7">
         <v>26178</v>
       </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
         <f t="shared" si="0"/>
         <v>26178</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1093,18 +1188,21 @@
       <c r="D14" t="s">
         <v>20</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="7">
         <v>30515</v>
       </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
         <f t="shared" si="0"/>
         <v>30515</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>55</v>
       </c>
@@ -1117,18 +1215,21 @@
       <c r="D15" t="s">
         <v>21</v>
       </c>
-      <c r="E15">
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="7">
         <v>28577</v>
       </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
         <f t="shared" si="0"/>
         <v>28577</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>55</v>
       </c>
@@ -1141,18 +1242,21 @@
       <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E16">
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="7">
         <v>1220</v>
       </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
         <f t="shared" si="0"/>
         <v>1220</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>55</v>
       </c>
@@ -1165,18 +1269,21 @@
       <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="E17">
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7">
         <v>7563</v>
       </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
         <f t="shared" si="0"/>
         <v>7563</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>55</v>
       </c>
@@ -1189,18 +1296,21 @@
       <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="E18">
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7">
         <v>8866</v>
       </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
         <f t="shared" si="0"/>
         <v>8866</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>55</v>
       </c>
@@ -1213,18 +1323,21 @@
       <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7">
         <v>39998</v>
       </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
         <f t="shared" si="0"/>
         <v>39998</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>55</v>
       </c>
@@ -1237,18 +1350,21 @@
       <c r="D20" t="s">
         <v>26</v>
       </c>
-      <c r="E20">
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7">
         <v>14145</v>
       </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
         <f t="shared" si="0"/>
         <v>14145</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>55</v>
       </c>
@@ -1261,18 +1377,21 @@
       <c r="D21" t="s">
         <v>27</v>
       </c>
-      <c r="E21">
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="7">
         <v>9583</v>
       </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
         <f t="shared" si="0"/>
         <v>9583</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>55</v>
       </c>
@@ -1285,18 +1404,21 @@
       <c r="D22" t="s">
         <v>28</v>
       </c>
-      <c r="E22">
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7">
         <v>33787</v>
       </c>
-      <c r="F22">
-        <v>0</v>
-      </c>
-      <c r="G22">
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
         <f t="shared" si="0"/>
         <v>33787</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>55</v>
       </c>
@@ -1309,18 +1431,21 @@
       <c r="D23" t="s">
         <v>29</v>
       </c>
-      <c r="E23">
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7">
         <v>665</v>
       </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
         <f t="shared" si="0"/>
         <v>665</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
         <v>55</v>
       </c>
@@ -1333,18 +1458,21 @@
       <c r="D24" t="s">
         <v>30</v>
       </c>
-      <c r="E24">
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="7">
         <v>19797</v>
       </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
         <f t="shared" si="0"/>
         <v>19797</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>55</v>
       </c>
@@ -1357,18 +1485,21 @@
       <c r="D25" t="s">
         <v>31</v>
       </c>
-      <c r="E25">
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="7">
         <v>22702</v>
       </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
         <f t="shared" si="0"/>
         <v>22702</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>55</v>
       </c>
@@ -1381,18 +1512,21 @@
       <c r="D26" t="s">
         <v>32</v>
       </c>
-      <c r="E26">
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7">
         <v>24756</v>
       </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
         <f t="shared" si="0"/>
         <v>24756</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>55</v>
       </c>
@@ -1405,18 +1539,21 @@
       <c r="D27" t="s">
         <v>33</v>
       </c>
-      <c r="E27">
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="7">
         <v>3425</v>
       </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
         <f t="shared" si="0"/>
         <v>3425</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
         <v>55</v>
       </c>
@@ -1429,18 +1566,21 @@
       <c r="D28" t="s">
         <v>34</v>
       </c>
-      <c r="E28">
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="7">
         <v>17213</v>
       </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
         <f t="shared" si="0"/>
         <v>17213</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>55</v>
       </c>
@@ -1453,18 +1593,21 @@
       <c r="D29" t="s">
         <v>35</v>
       </c>
-      <c r="E29">
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7">
         <v>17901</v>
       </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
         <f t="shared" si="0"/>
         <v>17901</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>55</v>
       </c>
@@ -1477,18 +1620,21 @@
       <c r="D30" t="s">
         <v>36</v>
       </c>
-      <c r="E30">
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="7">
         <v>40284</v>
       </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
         <f t="shared" si="0"/>
         <v>40284</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>55</v>
       </c>
@@ -1501,18 +1647,21 @@
       <c r="D31" t="s">
         <v>37</v>
       </c>
-      <c r="E31">
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="7">
         <v>34528</v>
       </c>
-      <c r="F31">
-        <v>0</v>
-      </c>
-      <c r="G31">
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
         <f t="shared" si="0"/>
         <v>34528</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>55</v>
       </c>
@@ -1525,18 +1674,21 @@
       <c r="D32" t="s">
         <v>38</v>
       </c>
-      <c r="E32">
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="7">
         <v>1105</v>
       </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
         <f t="shared" si="0"/>
         <v>1105</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
         <v>55</v>
       </c>
@@ -1549,18 +1701,21 @@
       <c r="D33" t="s">
         <v>39</v>
       </c>
-      <c r="E33">
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="7">
         <v>7891</v>
       </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
         <f t="shared" si="0"/>
         <v>7891</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>55</v>
       </c>
@@ -1573,18 +1728,21 @@
       <c r="D34" t="s">
         <v>40</v>
       </c>
-      <c r="E34">
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="7">
         <v>23002</v>
       </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <f t="shared" ref="G34:G65" si="1">E34-F34</f>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="0"/>
         <v>23002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
         <v>55</v>
       </c>
@@ -1597,18 +1755,21 @@
       <c r="D35" t="s">
         <v>41</v>
       </c>
-      <c r="E35">
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="7">
         <v>22623</v>
       </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="0"/>
         <v>22623</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>55</v>
       </c>
@@ -1621,18 +1782,21 @@
       <c r="D36" t="s">
         <v>42</v>
       </c>
-      <c r="E36">
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="7">
         <v>7483</v>
       </c>
-      <c r="F36">
-        <v>0</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="0"/>
         <v>7483</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>55</v>
       </c>
@@ -1645,18 +1809,21 @@
       <c r="D37" t="s">
         <v>43</v>
       </c>
-      <c r="E37">
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="7">
         <v>12244</v>
       </c>
-      <c r="F37">
-        <v>0</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="0"/>
         <v>12244</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>55</v>
       </c>
@@ -1669,18 +1836,21 @@
       <c r="D38" t="s">
         <v>44</v>
       </c>
-      <c r="E38">
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="7">
         <v>50031</v>
       </c>
-      <c r="F38">
-        <v>0</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="1"/>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="0"/>
         <v>50031</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
         <v>55</v>
       </c>
@@ -1693,18 +1863,21 @@
       <c r="D39" t="s">
         <v>45</v>
       </c>
-      <c r="E39">
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="7">
         <v>2261</v>
       </c>
-      <c r="F39">
-        <v>0</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="1"/>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="0"/>
         <v>2261</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>55</v>
       </c>
@@ -1717,18 +1890,21 @@
       <c r="D40" t="s">
         <v>46</v>
       </c>
-      <c r="E40">
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="7">
         <v>8137</v>
       </c>
-      <c r="F40">
-        <v>0</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="1"/>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="0"/>
         <v>8137</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
         <v>55</v>
       </c>
@@ -1741,18 +1917,21 @@
       <c r="D41" t="s">
         <v>47</v>
       </c>
-      <c r="E41">
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="7">
         <v>29890</v>
       </c>
-      <c r="F41">
-        <v>0</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="1"/>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="0"/>
         <v>29890</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
         <v>55</v>
       </c>
@@ -1765,18 +1944,21 @@
       <c r="D42" t="s">
         <v>48</v>
       </c>
-      <c r="E42">
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="7">
         <v>10394</v>
       </c>
-      <c r="F42">
-        <v>0</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="1"/>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="0"/>
         <v>10394</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
         <v>55</v>
       </c>
@@ -1789,18 +1971,21 @@
       <c r="D43" t="s">
         <v>49</v>
       </c>
-      <c r="E43">
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="7">
         <v>19659</v>
       </c>
-      <c r="F43">
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="1"/>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="0"/>
         <v>19659</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
         <v>55</v>
       </c>
@@ -1813,18 +1998,21 @@
       <c r="D44" t="s">
         <v>50</v>
       </c>
-      <c r="E44">
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="7">
         <v>60684</v>
       </c>
-      <c r="F44">
-        <v>0</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="1"/>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="0"/>
         <v>60684</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
         <v>55</v>
       </c>
@@ -1837,18 +2025,21 @@
       <c r="D45" t="s">
         <v>51</v>
       </c>
-      <c r="E45">
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="7">
         <v>8123</v>
       </c>
-      <c r="F45">
-        <v>0</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="1"/>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="0"/>
         <v>8123</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
         <v>55</v>
       </c>
@@ -1861,18 +2052,21 @@
       <c r="D46" t="s">
         <v>52</v>
       </c>
-      <c r="E46">
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="7">
         <v>30737</v>
       </c>
-      <c r="F46">
-        <v>0</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="1"/>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="0"/>
         <v>30737</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>55</v>
       </c>
@@ -1885,18 +2079,21 @@
       <c r="D47" t="s">
         <v>53</v>
       </c>
-      <c r="E47">
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="7">
         <v>21548</v>
       </c>
-      <c r="F47">
-        <v>0</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="1"/>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="0"/>
         <v>21548</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>55</v>
       </c>
@@ -1909,18 +2106,21 @@
       <c r="D48" t="s">
         <v>54</v>
       </c>
-      <c r="E48">
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="7">
         <v>59056</v>
       </c>
-      <c r="F48">
-        <v>0</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="1"/>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="0"/>
         <v>59056</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
         <v>72</v>
       </c>
@@ -1933,19 +2133,22 @@
       <c r="D49" t="s">
         <v>56</v>
       </c>
-      <c r="E49">
+      <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="10">
         <v>118000</v>
       </c>
-      <c r="F49">
-        <f t="shared" ref="F49:F64" si="2">E49</f>
+      <c r="G49" s="10">
+        <f t="shared" ref="G49:G64" si="1">F49</f>
         <v>118000</v>
       </c>
-      <c r="G49">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H49" s="11">
+        <f>F49-G49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -1958,19 +2161,22 @@
       <c r="D50" t="s">
         <v>57</v>
       </c>
-      <c r="E50">
+      <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="11">
         <v>54312</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="2"/>
+      <c r="G50" s="10">
+        <f t="shared" si="1"/>
         <v>54312</v>
       </c>
-      <c r="G50">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H50" s="11">
+        <f t="shared" ref="H50:H65" si="2">F50-G50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
         <v>72</v>
       </c>
@@ -1983,368 +2189,413 @@
       <c r="D51" t="s">
         <v>58</v>
       </c>
-      <c r="E51">
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="11">
         <v>118000</v>
       </c>
-      <c r="F51">
+      <c r="G51" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45419</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45486</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45486</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45566</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="11">
+        <v>236000</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="1"/>
+        <v>236000</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45586</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="11">
+        <v>192734</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="1"/>
+        <v>192734</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45607</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45759</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
         <f t="shared" si="2"/>
         <v>118000</v>
       </c>
-      <c r="G51">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="2">
-        <v>45419</v>
-      </c>
-      <c r="C52" t="s">
-        <v>6</v>
-      </c>
-      <c r="D52" t="s">
-        <v>59</v>
-      </c>
-      <c r="E52">
-        <v>118000</v>
-      </c>
-      <c r="F52">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>72</v>
-      </c>
-      <c r="B53" s="2">
-        <v>45484</v>
-      </c>
-      <c r="C53" t="s">
-        <v>6</v>
-      </c>
-      <c r="D53" t="s">
-        <v>60</v>
-      </c>
-      <c r="E53">
-        <v>118000</v>
-      </c>
-      <c r="F53">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>72</v>
-      </c>
-      <c r="B54" s="2">
-        <v>45484</v>
-      </c>
-      <c r="C54" t="s">
-        <v>6</v>
-      </c>
-      <c r="D54" t="s">
-        <v>61</v>
-      </c>
-      <c r="E54">
-        <v>118000</v>
-      </c>
-      <c r="F54">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>72</v>
-      </c>
-      <c r="B55" s="2">
-        <v>45486</v>
-      </c>
-      <c r="C55" t="s">
-        <v>6</v>
-      </c>
-      <c r="D55" t="s">
-        <v>62</v>
-      </c>
-      <c r="E55">
-        <v>118000</v>
-      </c>
-      <c r="F55">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>72</v>
-      </c>
-      <c r="B56" s="2">
-        <v>45486</v>
-      </c>
-      <c r="C56" t="s">
-        <v>6</v>
-      </c>
-      <c r="D56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E56">
-        <v>118000</v>
-      </c>
-      <c r="F56">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>72</v>
-      </c>
-      <c r="B57" s="2">
-        <v>45530</v>
-      </c>
-      <c r="C57" t="s">
-        <v>6</v>
-      </c>
-      <c r="D57" t="s">
-        <v>64</v>
-      </c>
-      <c r="E57">
-        <v>118000</v>
-      </c>
-      <c r="F57">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>72</v>
-      </c>
-      <c r="B58" s="2">
-        <v>45530</v>
-      </c>
-      <c r="C58" t="s">
-        <v>6</v>
-      </c>
-      <c r="D58" t="s">
-        <v>65</v>
-      </c>
-      <c r="E58">
-        <v>118000</v>
-      </c>
-      <c r="F58">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>72</v>
-      </c>
-      <c r="B59" s="2">
-        <v>45566</v>
-      </c>
-      <c r="C59" t="s">
-        <v>6</v>
-      </c>
-      <c r="D59" t="s">
-        <v>66</v>
-      </c>
-      <c r="E59">
-        <v>236000</v>
-      </c>
-      <c r="F59">
-        <f t="shared" si="2"/>
-        <v>236000</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>72</v>
-      </c>
-      <c r="B60" s="2">
-        <v>45586</v>
-      </c>
-      <c r="C60" t="s">
-        <v>6</v>
-      </c>
-      <c r="D60" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60">
-        <v>192734</v>
-      </c>
-      <c r="F60">
-        <f t="shared" si="2"/>
-        <v>192734</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>72</v>
-      </c>
-      <c r="B61" s="2">
-        <v>45607</v>
-      </c>
-      <c r="C61" t="s">
-        <v>6</v>
-      </c>
-      <c r="D61" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61">
-        <v>118000</v>
-      </c>
-      <c r="F61">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="2">
-        <v>45630</v>
-      </c>
-      <c r="C62" t="s">
-        <v>6</v>
-      </c>
-      <c r="D62" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62">
-        <v>118000</v>
-      </c>
-      <c r="F62">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>72</v>
-      </c>
-      <c r="B63" s="2">
-        <v>45677</v>
-      </c>
-      <c r="C63" t="s">
-        <v>6</v>
-      </c>
-      <c r="D63" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63">
-        <v>118000</v>
-      </c>
-      <c r="F63">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>72</v>
-      </c>
-      <c r="B64" s="2">
-        <v>45717</v>
-      </c>
-      <c r="C64" t="s">
-        <v>6</v>
-      </c>
-      <c r="D64" t="s">
-        <v>70</v>
-      </c>
-      <c r="E64">
-        <v>118000</v>
-      </c>
-      <c r="F64">
-        <f t="shared" si="2"/>
-        <v>118000</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>72</v>
-      </c>
-      <c r="B65" s="2">
-        <v>45759</v>
-      </c>
-      <c r="C65" t="s">
-        <v>6</v>
-      </c>
-      <c r="D65" t="s">
-        <v>71</v>
-      </c>
-      <c r="E65">
-        <v>118000</v>
-      </c>
-      <c r="F65">
-        <v>0</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="1"/>
-        <v>118000</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
         <v>84</v>
       </c>
@@ -2357,19 +2608,22 @@
       <c r="D66" t="s">
         <v>73</v>
       </c>
-      <c r="E66">
+      <c r="E66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="11">
         <v>177000</v>
       </c>
-      <c r="F66">
-        <f>E66</f>
+      <c r="G66" s="10">
+        <f>F66</f>
         <v>177000</v>
       </c>
-      <c r="G66">
-        <f t="shared" ref="G66:G76" si="3">E66-F66</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H66" s="11">
+        <f>F66-G66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
         <v>84</v>
       </c>
@@ -2382,19 +2636,22 @@
       <c r="D67" t="s">
         <v>74</v>
       </c>
-      <c r="E67">
+      <c r="E67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" s="11">
         <v>177000</v>
       </c>
-      <c r="F67">
-        <f>E67</f>
+      <c r="G67" s="10">
+        <f>F67</f>
         <v>177000</v>
       </c>
-      <c r="G67">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H67" s="11">
+        <f t="shared" ref="H67:H76" si="3">F67-G67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
         <v>84</v>
       </c>
@@ -2407,18 +2664,21 @@
       <c r="D68" t="s">
         <v>75</v>
       </c>
-      <c r="E68">
+      <c r="E68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="11">
         <v>786145.5</v>
       </c>
-      <c r="F68">
-        <v>0</v>
-      </c>
-      <c r="G68">
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
         <f t="shared" si="3"/>
         <v>786145.5</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
         <v>84</v>
       </c>
@@ -2431,19 +2691,22 @@
       <c r="D69" t="s">
         <v>76</v>
       </c>
-      <c r="E69">
+      <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="11">
         <v>184080</v>
       </c>
-      <c r="F69">
-        <f>E69</f>
+      <c r="G69" s="10">
+        <f>F69</f>
         <v>184080</v>
       </c>
-      <c r="G69">
+      <c r="H69" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
         <v>84</v>
       </c>
@@ -2456,18 +2719,21 @@
       <c r="D70" t="s">
         <v>77</v>
       </c>
-      <c r="E70">
+      <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="11">
         <v>607464</v>
       </c>
-      <c r="F70">
-        <v>0</v>
-      </c>
-      <c r="G70">
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11">
         <f t="shared" si="3"/>
         <v>607464</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
         <v>84</v>
       </c>
@@ -2480,19 +2746,22 @@
       <c r="D71" t="s">
         <v>78</v>
       </c>
-      <c r="E71">
+      <c r="E71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="11">
         <v>177000</v>
       </c>
-      <c r="F71">
-        <f>E71</f>
+      <c r="G71" s="10">
+        <f>F71</f>
         <v>177000</v>
       </c>
-      <c r="G71">
+      <c r="H71" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
         <v>84</v>
       </c>
@@ -2505,18 +2774,21 @@
       <c r="D72" t="s">
         <v>79</v>
       </c>
-      <c r="E72">
+      <c r="E72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" s="11">
         <v>1068456.96</v>
       </c>
-      <c r="F72">
-        <v>0</v>
-      </c>
-      <c r="G72">
-        <f t="shared" si="3"/>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <f>F72-G72</f>
         <v>1068456.96</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>84</v>
       </c>
@@ -2529,19 +2801,22 @@
       <c r="D73" t="s">
         <v>80</v>
       </c>
-      <c r="E73">
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="11">
         <v>354000</v>
       </c>
-      <c r="F73">
-        <f>E73</f>
+      <c r="G73" s="10">
+        <f>F73</f>
         <v>354000</v>
       </c>
-      <c r="G73">
+      <c r="H73" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>84</v>
       </c>
@@ -2554,19 +2829,22 @@
       <c r="D74" t="s">
         <v>81</v>
       </c>
-      <c r="E74">
+      <c r="E74" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" s="11">
         <v>177000</v>
       </c>
-      <c r="F74">
-        <f>E74</f>
+      <c r="G74" s="10">
+        <f>F74</f>
         <v>177000</v>
       </c>
-      <c r="G74">
+      <c r="H74" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>84</v>
       </c>
@@ -2579,19 +2857,22 @@
       <c r="D75" t="s">
         <v>82</v>
       </c>
-      <c r="E75">
+      <c r="E75" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" s="11">
         <v>177000</v>
       </c>
-      <c r="F75">
-        <f>E75</f>
+      <c r="G75" s="10">
+        <f>F75</f>
         <v>177000</v>
       </c>
-      <c r="G75">
+      <c r="H75" s="11">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>84</v>
       </c>
@@ -2604,18 +2885,21 @@
       <c r="D76" t="s">
         <v>83</v>
       </c>
-      <c r="E76">
+      <c r="E76" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="11">
         <v>177000</v>
       </c>
-      <c r="F76">
-        <v>0</v>
-      </c>
-      <c r="G76">
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
         <f t="shared" si="3"/>
         <v>177000</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>98</v>
       </c>
@@ -2628,18 +2912,22 @@
       <c r="D77" t="s">
         <v>85</v>
       </c>
-      <c r="E77">
+      <c r="E77" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="7">
         <v>23742</v>
       </c>
-      <c r="F77">
-        <f>E77</f>
+      <c r="G77" s="9">
+        <f>F77</f>
         <v>23742</v>
       </c>
-      <c r="G77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H77" s="5">
+        <f>F77-G77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>98</v>
       </c>
@@ -2652,19 +2940,22 @@
       <c r="D78" t="s">
         <v>86</v>
       </c>
-      <c r="E78">
+      <c r="E78" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="7">
         <v>80500</v>
       </c>
-      <c r="F78">
-        <f>E78</f>
+      <c r="G78" s="9">
+        <f>F78</f>
         <v>80500</v>
       </c>
-      <c r="G78">
-        <f t="shared" ref="G78:G103" si="4">E78-F78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H78" s="5">
+        <f>F78-G78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>90</v>
       </c>
@@ -2677,19 +2968,22 @@
       <c r="D79" t="s">
         <v>87</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" s="11">
         <v>52864</v>
       </c>
-      <c r="F79">
-        <f>E79</f>
+      <c r="G79" s="10">
+        <f>F79</f>
         <v>52864</v>
       </c>
-      <c r="G79">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H79" s="11">
+        <f>F79-G79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>90</v>
       </c>
@@ -2702,19 +2996,22 @@
       <c r="D80" t="s">
         <v>88</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" s="11">
         <v>72688</v>
       </c>
-      <c r="F80">
-        <f>E80</f>
+      <c r="G80" s="10">
+        <f>F80</f>
         <v>72688</v>
       </c>
-      <c r="G80">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H80" s="11">
+        <f t="shared" ref="H80:H81" si="4">F80-G80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>90</v>
       </c>
@@ -2727,19 +3024,22 @@
       <c r="D81" t="s">
         <v>89</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="11">
         <v>161896</v>
       </c>
-      <c r="F81">
-        <f>E81</f>
+      <c r="G81" s="10">
+        <f>F81</f>
         <v>161896</v>
       </c>
-      <c r="G81">
+      <c r="H81" s="11">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>97</v>
       </c>
@@ -2752,19 +3052,22 @@
       <c r="D82" t="s">
         <v>91</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="7">
         <v>16272</v>
       </c>
-      <c r="F82">
-        <f t="shared" ref="F82:F87" si="5">E82</f>
+      <c r="G82" s="9">
+        <f t="shared" ref="G82:G87" si="5">F82</f>
         <v>16272</v>
       </c>
-      <c r="G82">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H82" s="5">
+        <f>F82-G82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>97</v>
       </c>
@@ -2777,19 +3080,22 @@
       <c r="D83" t="s">
         <v>92</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="7">
         <v>21552</v>
       </c>
-      <c r="F83">
+      <c r="G83" s="9">
         <f t="shared" si="5"/>
         <v>21552</v>
       </c>
-      <c r="G83">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H83" s="5">
+        <f t="shared" ref="H83:H89" si="6">F83-G83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
         <v>97</v>
       </c>
@@ -2802,19 +3108,22 @@
       <c r="D84" t="s">
         <v>93</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="7">
         <v>22080</v>
       </c>
-      <c r="F84">
+      <c r="G84" s="9">
         <f t="shared" si="5"/>
         <v>22080</v>
       </c>
-      <c r="G84">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H84" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>97</v>
       </c>
@@ -2827,18 +3136,21 @@
       <c r="D85" t="s">
         <v>94</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" s="7">
         <v>4294</v>
       </c>
-      <c r="F85">
+      <c r="G85" s="9">
         <v>4257</v>
       </c>
-      <c r="G85">
-        <f t="shared" si="4"/>
+      <c r="H85" s="5">
+        <f t="shared" si="6"/>
         <v>37</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>97</v>
       </c>
@@ -2851,19 +3163,22 @@
       <c r="D86" t="s">
         <v>95</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" s="7">
         <v>24048</v>
       </c>
-      <c r="F86">
+      <c r="G86" s="9">
         <f t="shared" si="5"/>
         <v>24048</v>
       </c>
-      <c r="G86">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H86" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>97</v>
       </c>
@@ -2876,19 +3191,22 @@
       <c r="D87" t="s">
         <v>96</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87" s="7">
         <v>26848</v>
       </c>
-      <c r="F87">
+      <c r="G87" s="9">
         <f t="shared" si="5"/>
         <v>26848</v>
       </c>
-      <c r="G87">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H87" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
         <v>99</v>
       </c>
@@ -2901,19 +3219,22 @@
       <c r="D88" t="s">
         <v>46</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88" s="7">
         <v>38300</v>
       </c>
-      <c r="F88">
-        <f>E88</f>
+      <c r="G88" s="9">
+        <f>F88</f>
         <v>38300</v>
       </c>
-      <c r="G88">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H88" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>99</v>
       </c>
@@ -2926,19 +3247,22 @@
       <c r="D89" t="s">
         <v>47</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="7">
         <v>38300</v>
       </c>
-      <c r="F89">
-        <f>E89</f>
+      <c r="G89" s="9">
+        <f>F89</f>
         <v>38300</v>
       </c>
-      <c r="G89">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="H89" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
         <v>114</v>
       </c>
@@ -2951,18 +3275,21 @@
       <c r="D90" t="s">
         <v>100</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="11">
         <v>603046</v>
       </c>
-      <c r="F90">
-        <v>0</v>
-      </c>
-      <c r="G90">
-        <f t="shared" si="4"/>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <f>F90-G90</f>
         <v>603046</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
         <v>114</v>
       </c>
@@ -2975,18 +3302,21 @@
       <c r="D91" t="s">
         <v>101</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" s="11">
         <v>394852</v>
       </c>
-      <c r="F91">
-        <v>0</v>
-      </c>
-      <c r="G91">
-        <f t="shared" si="4"/>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" ref="H91:H103" si="7">F91-G91</f>
         <v>394852</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>114</v>
       </c>
@@ -2999,18 +3329,21 @@
       <c r="D92" t="s">
         <v>102</v>
       </c>
-      <c r="E92">
+      <c r="E92" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F92" s="11">
         <v>355367</v>
       </c>
-      <c r="F92">
-        <v>0</v>
-      </c>
-      <c r="G92">
-        <f t="shared" si="4"/>
+      <c r="G92" s="10">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="7"/>
         <v>355367</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>114</v>
       </c>
@@ -3023,18 +3356,21 @@
       <c r="D93" t="s">
         <v>103</v>
       </c>
-      <c r="E93">
+      <c r="E93" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="11">
         <v>376904</v>
       </c>
-      <c r="F93">
-        <v>0</v>
-      </c>
-      <c r="G93">
-        <f t="shared" si="4"/>
+      <c r="G93" s="10">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <f t="shared" si="7"/>
         <v>376904</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
         <v>114</v>
       </c>
@@ -3047,18 +3383,21 @@
       <c r="D94" t="s">
         <v>104</v>
       </c>
-      <c r="E94">
+      <c r="E94" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="11">
         <v>339214</v>
       </c>
-      <c r="F94">
-        <v>0</v>
-      </c>
-      <c r="G94">
-        <f t="shared" si="4"/>
+      <c r="G94" s="10">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" si="7"/>
         <v>339214</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>114</v>
       </c>
@@ -3071,18 +3410,21 @@
       <c r="D95" t="s">
         <v>105</v>
       </c>
-      <c r="E95">
+      <c r="E95" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="11">
         <v>412799</v>
       </c>
-      <c r="F95">
-        <v>0</v>
-      </c>
-      <c r="G95">
-        <f t="shared" si="4"/>
+      <c r="G95" s="10">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="7"/>
         <v>412799</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>114</v>
       </c>
@@ -3095,18 +3437,21 @@
       <c r="D96" t="s">
         <v>106</v>
       </c>
-      <c r="E96">
+      <c r="E96" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F96" s="11">
         <v>488180</v>
       </c>
-      <c r="F96">
-        <v>0</v>
-      </c>
-      <c r="G96">
-        <f t="shared" si="4"/>
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" si="7"/>
         <v>488180</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>114</v>
       </c>
@@ -3119,18 +3464,21 @@
       <c r="D97" t="s">
         <v>107</v>
       </c>
-      <c r="E97">
+      <c r="E97" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="11">
         <v>341008</v>
       </c>
-      <c r="F97">
-        <v>0</v>
-      </c>
-      <c r="G97">
-        <f t="shared" si="4"/>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="7"/>
         <v>341008</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
         <v>114</v>
       </c>
@@ -3143,18 +3491,21 @@
       <c r="D98" t="s">
         <v>108</v>
       </c>
-      <c r="E98">
+      <c r="E98" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="11">
         <v>290755</v>
       </c>
-      <c r="F98">
-        <v>0</v>
-      </c>
-      <c r="G98">
-        <f t="shared" si="4"/>
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <f t="shared" si="7"/>
         <v>290755</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
         <v>114</v>
       </c>
@@ -3167,18 +3518,21 @@
       <c r="D99" t="s">
         <v>109</v>
       </c>
-      <c r="E99">
+      <c r="E99" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F99" s="11">
         <v>323060</v>
       </c>
-      <c r="F99">
-        <v>0</v>
-      </c>
-      <c r="G99">
-        <f t="shared" si="4"/>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11">
+        <f t="shared" si="7"/>
         <v>323060</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>114</v>
       </c>
@@ -3191,18 +3545,21 @@
       <c r="D100" t="s">
         <v>110</v>
       </c>
-      <c r="E100">
+      <c r="E100" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F100" s="11">
         <v>250372</v>
       </c>
-      <c r="F100">
-        <v>0</v>
-      </c>
-      <c r="G100">
-        <f t="shared" si="4"/>
+      <c r="G100" s="10">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11">
+        <f t="shared" si="7"/>
         <v>250372</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
         <v>114</v>
       </c>
@@ -3215,18 +3572,21 @@
       <c r="D101" t="s">
         <v>111</v>
       </c>
-      <c r="E101">
+      <c r="E101" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="11">
         <v>341008</v>
       </c>
-      <c r="F101">
-        <v>0</v>
-      </c>
-      <c r="G101">
-        <f t="shared" si="4"/>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11">
+        <f t="shared" si="7"/>
         <v>341008</v>
       </c>
     </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
         <v>114</v>
       </c>
@@ -3239,18 +3599,21 @@
       <c r="D102" t="s">
         <v>112</v>
       </c>
-      <c r="E102">
+      <c r="E102" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F102" s="11">
         <v>412799</v>
       </c>
-      <c r="F102">
-        <v>0</v>
-      </c>
-      <c r="G102">
-        <f t="shared" si="4"/>
+      <c r="G102" s="10">
+        <v>0</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="7"/>
         <v>412799</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>114</v>
       </c>
@@ -3263,18 +3626,22 @@
       <c r="D103" t="s">
         <v>113</v>
       </c>
-      <c r="E103">
+      <c r="E103" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" s="11">
         <v>341008</v>
       </c>
-      <c r="F103">
-        <v>0</v>
-      </c>
-      <c r="G103">
-        <f t="shared" si="4"/>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="11">
+        <f t="shared" si="7"/>
         <v>341008</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/uploads/last_uploaded.xlsx
+++ b/uploads/last_uploaded.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Siddique\Documents\1 Siddique\S2\Client_Mailer\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B624DE64-7622-4C87-83F6-36972BA37D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68AA72D6-3B3D-4403-B329-D4C0819B8DE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="119">
   <si>
     <t>Client Name</t>
   </si>
@@ -65,15 +65,324 @@
     <t>S2/25-26/ES/002</t>
   </si>
   <si>
+    <t>S2/25-26/ES/003</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/004</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/005</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/006</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/007</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/008</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/009</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/010</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/011</t>
+  </si>
+  <si>
     <t>Opening Balance</t>
   </si>
   <si>
+    <t>S2/25-26/ES/013</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/014</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/015</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/016</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/017</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/018</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/019</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/020</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/021</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/022</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/023</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/025</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/026</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/027</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/028</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/029</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/030</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/031</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/032</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/033</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/036</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/037</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/038</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/039</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/040</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/041</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/042</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/045</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/046</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/047</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/048</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/049</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/050</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/051</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/052</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/053</t>
+  </si>
+  <si>
     <t>S2LLC</t>
   </si>
   <si>
+    <t>S2/24-25/LS/002</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/003</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/005</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/006</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/010</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/011</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/012</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/013</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/016</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/017</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/020</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/023</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/027</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/029</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/031</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/001</t>
+  </si>
+  <si>
     <t>Titan</t>
   </si>
   <si>
+    <t>S2/24-25/LS/001</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/004</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/007</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/008</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/009</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/015</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/019</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/022</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/024</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/026</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/028</t>
+  </si>
+  <si>
+    <t>Duroflex</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/001</t>
+  </si>
+  <si>
+    <t>S2/25-26/ES/043</t>
+  </si>
+  <si>
+    <t>S2/24-25/LS/030</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/002</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/030</t>
+  </si>
+  <si>
+    <t>Cholayil</t>
+  </si>
+  <si>
+    <t>S2I/25-26/ES/012</t>
+  </si>
+  <si>
+    <t>S2I/25-26/ES/024</t>
+  </si>
+  <si>
+    <t>S2I/25-26/ES/034</t>
+  </si>
+  <si>
+    <t>S2I/25-26/ES/035</t>
+  </si>
+  <si>
+    <t>S2I/25-26/ES/044</t>
+  </si>
+  <si>
+    <t>S2I/25-26/ES/052</t>
+  </si>
+  <si>
+    <t>Mymediset (BIT)</t>
+  </si>
+  <si>
+    <t>Rua (Intelli Group)</t>
+  </si>
+  <si>
+    <t>Saudi Cargo (Intelli Group)</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/003</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/004</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/005</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/006</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/007</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/008</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/009</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/010</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/011</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/012</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/013</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/014</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/015</t>
+  </si>
+  <si>
+    <t>S2/25-26/LS/016</t>
+  </si>
+  <si>
+    <t>Lancesoft</t>
+  </si>
+  <si>
     <t>Invoice Value</t>
   </si>
   <si>
@@ -81,6 +390,9 @@
   </si>
   <si>
     <t>$</t>
+  </si>
+  <si>
+    <t>₹</t>
   </si>
 </sst>
 </file>
@@ -494,8 +806,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="H86" sqref="H86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -526,10 +838,10 @@
         <v>3</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>12</v>
+        <v>115</v>
       </c>
       <c r="G1" s="8"/>
       <c r="H1" s="3" t="s">
@@ -541,34 +853,34 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="B2" s="2">
         <v>45777</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F2" s="7">
         <v>53140</v>
       </c>
       <c r="G2" s="9">
-        <v>53139</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
         <f>F2-G2</f>
-        <v>1</v>
+        <v>53140</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>11</v>
+        <v>55</v>
       </c>
       <c r="B3" s="2">
         <v>45777</v>
@@ -580,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
+        <v>117</v>
       </c>
       <c r="F3" s="7">
         <v>35621</v>
@@ -594,419 +906,2739 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H4" s="5"/>
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" t="s">
+        <v>117</v>
+      </c>
+      <c r="F4" s="7">
+        <v>21365</v>
+      </c>
+      <c r="G4" s="9">
+        <v>0</v>
+      </c>
+      <c r="H4" s="5">
+        <f t="shared" si="0"/>
+        <v>21365</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H5" s="5"/>
+      <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F5" s="7">
+        <v>29367</v>
+      </c>
+      <c r="G5" s="9">
+        <v>0</v>
+      </c>
+      <c r="H5" s="5">
+        <f t="shared" si="0"/>
+        <v>29367</v>
+      </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H6" s="5"/>
+      <c r="A6" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C6" t="s">
+        <v>6</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="7">
+        <v>6909</v>
+      </c>
+      <c r="G6" s="9">
+        <v>0</v>
+      </c>
+      <c r="H6" s="5">
+        <f t="shared" si="0"/>
+        <v>6909</v>
+      </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H7" s="5"/>
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F7" s="7">
+        <v>1201</v>
+      </c>
+      <c r="G7" s="9">
+        <v>0</v>
+      </c>
+      <c r="H7" s="5">
+        <f t="shared" si="0"/>
+        <v>1201</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H8" s="5"/>
+      <c r="A8" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C8" t="s">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F8" s="7">
+        <v>6696</v>
+      </c>
+      <c r="G8" s="9">
+        <v>0</v>
+      </c>
+      <c r="H8" s="5">
+        <f t="shared" si="0"/>
+        <v>6696</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H9" s="5"/>
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F9" s="7">
+        <v>33883</v>
+      </c>
+      <c r="G9" s="9">
+        <v>0</v>
+      </c>
+      <c r="H9" s="5">
+        <f t="shared" si="0"/>
+        <v>33883</v>
+      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H10" s="5"/>
+      <c r="A10" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F10" s="7">
+        <v>19589</v>
+      </c>
+      <c r="G10" s="9">
+        <v>0</v>
+      </c>
+      <c r="H10" s="5">
+        <f t="shared" si="0"/>
+        <v>19589</v>
+      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H11" s="5"/>
+      <c r="A11" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
+        <v>117</v>
+      </c>
+      <c r="F11" s="7">
+        <v>22832</v>
+      </c>
+      <c r="G11" s="9">
+        <v>0</v>
+      </c>
+      <c r="H11" s="5">
+        <f t="shared" si="0"/>
+        <v>22832</v>
+      </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H12" s="5"/>
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="2">
+        <v>45777</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" t="s">
+        <v>117</v>
+      </c>
+      <c r="F12" s="7">
+        <v>179</v>
+      </c>
+      <c r="G12" s="9">
+        <v>0</v>
+      </c>
+      <c r="H12" s="5">
+        <f t="shared" si="0"/>
+        <v>179</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H13" s="5"/>
+      <c r="A13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C13" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" t="s">
+        <v>19</v>
+      </c>
+      <c r="E13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F13" s="7">
+        <v>26178</v>
+      </c>
+      <c r="G13" s="9">
+        <v>0</v>
+      </c>
+      <c r="H13" s="5">
+        <f t="shared" si="0"/>
+        <v>26178</v>
+      </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H14" s="5"/>
+      <c r="A14" t="s">
+        <v>55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C14" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="7">
+        <v>30515</v>
+      </c>
+      <c r="G14" s="9">
+        <v>0</v>
+      </c>
+      <c r="H14" s="5">
+        <f t="shared" si="0"/>
+        <v>30515</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H15" s="5"/>
+      <c r="A15" t="s">
+        <v>55</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15" t="s">
+        <v>117</v>
+      </c>
+      <c r="F15" s="7">
+        <v>28577</v>
+      </c>
+      <c r="G15" s="9">
+        <v>0</v>
+      </c>
+      <c r="H15" s="5">
+        <f t="shared" si="0"/>
+        <v>28577</v>
+      </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="H16" s="5"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H17" s="5"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H18" s="5"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H19" s="5"/>
-    </row>
-    <row r="20" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H20" s="5"/>
-    </row>
-    <row r="21" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H21" s="5"/>
-    </row>
-    <row r="22" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H22" s="5"/>
-    </row>
-    <row r="23" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H23" s="5"/>
-    </row>
-    <row r="24" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H24" s="5"/>
-    </row>
-    <row r="25" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H25" s="5"/>
-    </row>
-    <row r="26" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H26" s="5"/>
-    </row>
-    <row r="27" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H27" s="5"/>
-    </row>
-    <row r="28" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H28" s="5"/>
-    </row>
-    <row r="29" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H29" s="5"/>
-    </row>
-    <row r="30" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H30" s="5"/>
-    </row>
-    <row r="31" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H31" s="5"/>
-    </row>
-    <row r="32" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H32" s="5"/>
-    </row>
-    <row r="33" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H33" s="5"/>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H34" s="5"/>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H35" s="5"/>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H36" s="5"/>
-    </row>
-    <row r="37" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H37" s="5"/>
-    </row>
-    <row r="38" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H38" s="5"/>
-    </row>
-    <row r="39" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H39" s="5"/>
-    </row>
-    <row r="40" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H40" s="5"/>
-    </row>
-    <row r="41" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H41" s="5"/>
-    </row>
-    <row r="42" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H42" s="5"/>
-    </row>
-    <row r="43" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H43" s="5"/>
-    </row>
-    <row r="44" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H44" s="5"/>
-    </row>
-    <row r="45" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H45" s="5"/>
-    </row>
-    <row r="46" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H46" s="5"/>
-    </row>
-    <row r="47" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H47" s="5"/>
-    </row>
-    <row r="48" spans="8:8" x14ac:dyDescent="0.35">
-      <c r="H48" s="5"/>
-    </row>
-    <row r="49" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
-    </row>
-    <row r="50" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F50" s="11"/>
-      <c r="G50" s="10"/>
-      <c r="H50" s="11"/>
-    </row>
-    <row r="51" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F51" s="11"/>
-      <c r="G51" s="10"/>
-      <c r="H51" s="11"/>
-    </row>
-    <row r="52" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F52" s="11"/>
-      <c r="G52" s="10"/>
-      <c r="H52" s="11"/>
-    </row>
-    <row r="53" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F53" s="11"/>
-      <c r="G53" s="10"/>
-      <c r="H53" s="11"/>
-    </row>
-    <row r="54" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F54" s="11"/>
-      <c r="G54" s="10"/>
-      <c r="H54" s="11"/>
-    </row>
-    <row r="55" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F55" s="11"/>
-      <c r="G55" s="10"/>
-      <c r="H55" s="11"/>
-    </row>
-    <row r="56" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F56" s="11"/>
-      <c r="G56" s="10"/>
-      <c r="H56" s="11"/>
-    </row>
-    <row r="57" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F57" s="11"/>
-      <c r="G57" s="10"/>
-      <c r="H57" s="11"/>
-    </row>
-    <row r="58" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F58" s="11"/>
-      <c r="G58" s="10"/>
-      <c r="H58" s="11"/>
-    </row>
-    <row r="59" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F59" s="11"/>
-      <c r="G59" s="10"/>
-      <c r="H59" s="11"/>
-    </row>
-    <row r="60" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F60" s="11"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="11"/>
-    </row>
-    <row r="61" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F61" s="11"/>
-      <c r="G61" s="10"/>
-      <c r="H61" s="11"/>
-    </row>
-    <row r="62" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F62" s="11"/>
-      <c r="G62" s="10"/>
-      <c r="H62" s="11"/>
-    </row>
-    <row r="63" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F63" s="11"/>
-      <c r="G63" s="10"/>
-      <c r="H63" s="11"/>
-    </row>
-    <row r="64" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F64" s="11"/>
-      <c r="G64" s="10"/>
-      <c r="H64" s="11"/>
-    </row>
-    <row r="65" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F65" s="11"/>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
-    </row>
-    <row r="66" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F66" s="11"/>
-      <c r="G66" s="10"/>
-      <c r="H66" s="11"/>
-    </row>
-    <row r="67" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F67" s="11"/>
-      <c r="G67" s="10"/>
-      <c r="H67" s="11"/>
-    </row>
-    <row r="68" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F68" s="11"/>
-      <c r="G68" s="10"/>
-      <c r="H68" s="11"/>
-    </row>
-    <row r="69" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F69" s="11"/>
-      <c r="G69" s="10"/>
-      <c r="H69" s="11"/>
-    </row>
-    <row r="70" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F70" s="11"/>
-      <c r="G70" s="10"/>
-      <c r="H70" s="11"/>
-    </row>
-    <row r="71" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F71" s="11"/>
-      <c r="G71" s="10"/>
-      <c r="H71" s="11"/>
-    </row>
-    <row r="72" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F72" s="11"/>
-      <c r="G72" s="10"/>
-      <c r="H72" s="11"/>
-    </row>
-    <row r="73" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F73" s="11"/>
-      <c r="G73" s="10"/>
-      <c r="H73" s="11"/>
-    </row>
-    <row r="74" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F74" s="11"/>
-      <c r="G74" s="10"/>
-      <c r="H74" s="11"/>
-    </row>
-    <row r="75" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F75" s="11"/>
-      <c r="G75" s="10"/>
-      <c r="H75" s="11"/>
-    </row>
-    <row r="76" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="F76" s="11"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="11"/>
-    </row>
-    <row r="77" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H77" s="5"/>
-    </row>
-    <row r="78" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="H78" s="5"/>
-    </row>
-    <row r="79" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E79" s="13"/>
-      <c r="F79" s="11"/>
-      <c r="G79" s="10"/>
-      <c r="H79" s="11"/>
-    </row>
-    <row r="80" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E80" s="13"/>
-      <c r="F80" s="11"/>
-      <c r="G80" s="10"/>
-      <c r="H80" s="11"/>
-    </row>
-    <row r="81" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E81" s="13"/>
-      <c r="F81" s="11"/>
-      <c r="G81" s="10"/>
-      <c r="H81" s="11"/>
-    </row>
-    <row r="82" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E82" s="13"/>
-      <c r="H82" s="5"/>
-    </row>
-    <row r="83" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E83" s="13"/>
-      <c r="H83" s="5"/>
-    </row>
-    <row r="84" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E84" s="13"/>
-      <c r="H84" s="5"/>
-    </row>
-    <row r="85" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E85" s="13"/>
-      <c r="H85" s="5"/>
-    </row>
-    <row r="86" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E86" s="13"/>
-      <c r="H86" s="5"/>
-    </row>
-    <row r="87" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E87" s="13"/>
-      <c r="H87" s="5"/>
-    </row>
-    <row r="88" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E88" s="13"/>
-      <c r="H88" s="5"/>
-    </row>
-    <row r="89" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E89" s="13"/>
-      <c r="H89" s="5"/>
-    </row>
-    <row r="90" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E90" s="13"/>
-      <c r="F90" s="11"/>
-      <c r="G90" s="10"/>
-      <c r="H90" s="11"/>
-    </row>
-    <row r="91" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E91" s="13"/>
-      <c r="F91" s="11"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="11"/>
-    </row>
-    <row r="92" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E92" s="13"/>
-      <c r="F92" s="11"/>
-      <c r="G92" s="10"/>
-      <c r="H92" s="11"/>
-    </row>
-    <row r="93" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E93" s="13"/>
-      <c r="F93" s="11"/>
-      <c r="G93" s="10"/>
-      <c r="H93" s="11"/>
-    </row>
-    <row r="94" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E94" s="13"/>
-      <c r="F94" s="11"/>
-      <c r="G94" s="10"/>
-      <c r="H94" s="11"/>
-    </row>
-    <row r="95" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E95" s="13"/>
-      <c r="F95" s="11"/>
-      <c r="G95" s="10"/>
-      <c r="H95" s="11"/>
-    </row>
-    <row r="96" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E96" s="13"/>
-      <c r="F96" s="11"/>
-      <c r="G96" s="10"/>
-      <c r="H96" s="11"/>
-    </row>
-    <row r="97" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E97" s="13"/>
-      <c r="F97" s="11"/>
-      <c r="G97" s="10"/>
-      <c r="H97" s="11"/>
-    </row>
-    <row r="98" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E98" s="13"/>
-      <c r="F98" s="11"/>
-      <c r="G98" s="10"/>
-      <c r="H98" s="11"/>
-    </row>
-    <row r="99" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E99" s="13"/>
-      <c r="F99" s="11"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="11"/>
-    </row>
-    <row r="100" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E100" s="13"/>
-      <c r="F100" s="11"/>
-      <c r="G100" s="10"/>
-      <c r="H100" s="11"/>
-    </row>
-    <row r="101" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E101" s="13"/>
-      <c r="F101" s="11"/>
-      <c r="G101" s="10"/>
-      <c r="H101" s="11"/>
-    </row>
-    <row r="102" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E102" s="13"/>
-      <c r="F102" s="11"/>
-      <c r="G102" s="10"/>
-      <c r="H102" s="11"/>
-    </row>
-    <row r="103" spans="5:8" x14ac:dyDescent="0.35">
-      <c r="E103" s="13"/>
-      <c r="F103" s="11"/>
-      <c r="G103" s="10"/>
-      <c r="H103" s="11"/>
+      <c r="A16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B16" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16" t="s">
+        <v>117</v>
+      </c>
+      <c r="F16" s="7">
+        <v>1220</v>
+      </c>
+      <c r="G16" s="9">
+        <v>0</v>
+      </c>
+      <c r="H16" s="5">
+        <f t="shared" si="0"/>
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C17" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s">
+        <v>117</v>
+      </c>
+      <c r="F17" s="7">
+        <v>7563</v>
+      </c>
+      <c r="G17" s="9">
+        <v>0</v>
+      </c>
+      <c r="H17" s="5">
+        <f t="shared" si="0"/>
+        <v>7563</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>55</v>
+      </c>
+      <c r="B18" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C18" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" t="s">
+        <v>24</v>
+      </c>
+      <c r="E18" t="s">
+        <v>117</v>
+      </c>
+      <c r="F18" s="7">
+        <v>8866</v>
+      </c>
+      <c r="G18" s="9">
+        <v>0</v>
+      </c>
+      <c r="H18" s="5">
+        <f t="shared" si="0"/>
+        <v>8866</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C19" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" t="s">
+        <v>117</v>
+      </c>
+      <c r="F19" s="7">
+        <v>39998</v>
+      </c>
+      <c r="G19" s="9">
+        <v>0</v>
+      </c>
+      <c r="H19" s="5">
+        <f t="shared" si="0"/>
+        <v>39998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B20" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+      <c r="D20" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" t="s">
+        <v>117</v>
+      </c>
+      <c r="F20" s="7">
+        <v>14145</v>
+      </c>
+      <c r="G20" s="9">
+        <v>0</v>
+      </c>
+      <c r="H20" s="5">
+        <f t="shared" si="0"/>
+        <v>14145</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C21" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" t="s">
+        <v>117</v>
+      </c>
+      <c r="F21" s="7">
+        <v>9583</v>
+      </c>
+      <c r="G21" s="9">
+        <v>0</v>
+      </c>
+      <c r="H21" s="5">
+        <f t="shared" si="0"/>
+        <v>9583</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>55</v>
+      </c>
+      <c r="B22" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C22" t="s">
+        <v>6</v>
+      </c>
+      <c r="D22" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+      <c r="F22" s="7">
+        <v>33787</v>
+      </c>
+      <c r="G22" s="9">
+        <v>0</v>
+      </c>
+      <c r="H22" s="5">
+        <f t="shared" si="0"/>
+        <v>33787</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="2">
+        <v>45808</v>
+      </c>
+      <c r="C23" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F23" s="7">
+        <v>665</v>
+      </c>
+      <c r="G23" s="9">
+        <v>0</v>
+      </c>
+      <c r="H23" s="5">
+        <f t="shared" si="0"/>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C24" t="s">
+        <v>6</v>
+      </c>
+      <c r="D24" t="s">
+        <v>30</v>
+      </c>
+      <c r="E24" t="s">
+        <v>117</v>
+      </c>
+      <c r="F24" s="7">
+        <v>19797</v>
+      </c>
+      <c r="G24" s="9">
+        <v>0</v>
+      </c>
+      <c r="H24" s="5">
+        <f t="shared" si="0"/>
+        <v>19797</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C25" t="s">
+        <v>6</v>
+      </c>
+      <c r="D25" t="s">
+        <v>31</v>
+      </c>
+      <c r="E25" t="s">
+        <v>117</v>
+      </c>
+      <c r="F25" s="7">
+        <v>22702</v>
+      </c>
+      <c r="G25" s="9">
+        <v>0</v>
+      </c>
+      <c r="H25" s="5">
+        <f t="shared" si="0"/>
+        <v>22702</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C26" t="s">
+        <v>6</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7">
+        <v>24756</v>
+      </c>
+      <c r="G26" s="9">
+        <v>0</v>
+      </c>
+      <c r="H26" s="5">
+        <f t="shared" si="0"/>
+        <v>24756</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C27" t="s">
+        <v>6</v>
+      </c>
+      <c r="D27" t="s">
+        <v>33</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="F27" s="7">
+        <v>3425</v>
+      </c>
+      <c r="G27" s="9">
+        <v>0</v>
+      </c>
+      <c r="H27" s="5">
+        <f t="shared" si="0"/>
+        <v>3425</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C28" t="s">
+        <v>6</v>
+      </c>
+      <c r="D28" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="F28" s="7">
+        <v>17213</v>
+      </c>
+      <c r="G28" s="9">
+        <v>0</v>
+      </c>
+      <c r="H28" s="5">
+        <f t="shared" si="0"/>
+        <v>17213</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>55</v>
+      </c>
+      <c r="B29" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C29" t="s">
+        <v>6</v>
+      </c>
+      <c r="D29" t="s">
+        <v>35</v>
+      </c>
+      <c r="E29" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="7">
+        <v>17901</v>
+      </c>
+      <c r="G29" s="9">
+        <v>0</v>
+      </c>
+      <c r="H29" s="5">
+        <f t="shared" si="0"/>
+        <v>17901</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>55</v>
+      </c>
+      <c r="B30" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C30" t="s">
+        <v>6</v>
+      </c>
+      <c r="D30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="7">
+        <v>40284</v>
+      </c>
+      <c r="G30" s="9">
+        <v>0</v>
+      </c>
+      <c r="H30" s="5">
+        <f t="shared" si="0"/>
+        <v>40284</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>55</v>
+      </c>
+      <c r="B31" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C31" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" t="s">
+        <v>37</v>
+      </c>
+      <c r="E31" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="7">
+        <v>34528</v>
+      </c>
+      <c r="G31" s="9">
+        <v>0</v>
+      </c>
+      <c r="H31" s="5">
+        <f t="shared" si="0"/>
+        <v>34528</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" s="2">
+        <v>45838</v>
+      </c>
+      <c r="C32" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32" t="s">
+        <v>38</v>
+      </c>
+      <c r="E32" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="7">
+        <v>1105</v>
+      </c>
+      <c r="G32" s="9">
+        <v>0</v>
+      </c>
+      <c r="H32" s="5">
+        <f t="shared" si="0"/>
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>55</v>
+      </c>
+      <c r="B33" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C33" t="s">
+        <v>6</v>
+      </c>
+      <c r="D33" t="s">
+        <v>39</v>
+      </c>
+      <c r="E33" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="7">
+        <v>7891</v>
+      </c>
+      <c r="G33" s="9">
+        <v>0</v>
+      </c>
+      <c r="H33" s="5">
+        <f t="shared" si="0"/>
+        <v>7891</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C34" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="7">
+        <v>23002</v>
+      </c>
+      <c r="G34" s="9">
+        <v>0</v>
+      </c>
+      <c r="H34" s="5">
+        <f t="shared" si="0"/>
+        <v>23002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C35" t="s">
+        <v>6</v>
+      </c>
+      <c r="D35" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="7">
+        <v>22623</v>
+      </c>
+      <c r="G35" s="9">
+        <v>0</v>
+      </c>
+      <c r="H35" s="5">
+        <f t="shared" si="0"/>
+        <v>22623</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C36" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="7">
+        <v>7483</v>
+      </c>
+      <c r="G36" s="9">
+        <v>0</v>
+      </c>
+      <c r="H36" s="5">
+        <f t="shared" si="0"/>
+        <v>7483</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>55</v>
+      </c>
+      <c r="B37" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C37" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" t="s">
+        <v>43</v>
+      </c>
+      <c r="E37" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="7">
+        <v>12244</v>
+      </c>
+      <c r="G37" s="9">
+        <v>0</v>
+      </c>
+      <c r="H37" s="5">
+        <f t="shared" si="0"/>
+        <v>12244</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C38" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38" t="s">
+        <v>44</v>
+      </c>
+      <c r="E38" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="7">
+        <v>50031</v>
+      </c>
+      <c r="G38" s="9">
+        <v>0</v>
+      </c>
+      <c r="H38" s="5">
+        <f t="shared" si="0"/>
+        <v>50031</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" s="2">
+        <v>45869</v>
+      </c>
+      <c r="C39" t="s">
+        <v>6</v>
+      </c>
+      <c r="D39" t="s">
+        <v>45</v>
+      </c>
+      <c r="E39" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="7">
+        <v>2261</v>
+      </c>
+      <c r="G39" s="9">
+        <v>0</v>
+      </c>
+      <c r="H39" s="5">
+        <f t="shared" si="0"/>
+        <v>2261</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>55</v>
+      </c>
+      <c r="B40" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C40" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40" t="s">
+        <v>46</v>
+      </c>
+      <c r="E40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="7">
+        <v>8137</v>
+      </c>
+      <c r="G40" s="9">
+        <v>0</v>
+      </c>
+      <c r="H40" s="5">
+        <f t="shared" si="0"/>
+        <v>8137</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>55</v>
+      </c>
+      <c r="B41" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C41" t="s">
+        <v>6</v>
+      </c>
+      <c r="D41" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" t="s">
+        <v>117</v>
+      </c>
+      <c r="F41" s="7">
+        <v>29890</v>
+      </c>
+      <c r="G41" s="9">
+        <v>0</v>
+      </c>
+      <c r="H41" s="5">
+        <f t="shared" si="0"/>
+        <v>29890</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C42" t="s">
+        <v>6</v>
+      </c>
+      <c r="D42" t="s">
+        <v>48</v>
+      </c>
+      <c r="E42" t="s">
+        <v>117</v>
+      </c>
+      <c r="F42" s="7">
+        <v>10394</v>
+      </c>
+      <c r="G42" s="9">
+        <v>0</v>
+      </c>
+      <c r="H42" s="5">
+        <f t="shared" si="0"/>
+        <v>10394</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C43" t="s">
+        <v>6</v>
+      </c>
+      <c r="D43" t="s">
+        <v>49</v>
+      </c>
+      <c r="E43" t="s">
+        <v>117</v>
+      </c>
+      <c r="F43" s="7">
+        <v>19659</v>
+      </c>
+      <c r="G43" s="9">
+        <v>0</v>
+      </c>
+      <c r="H43" s="5">
+        <f t="shared" si="0"/>
+        <v>19659</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>55</v>
+      </c>
+      <c r="B44" s="2">
+        <v>45900</v>
+      </c>
+      <c r="C44" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44" t="s">
+        <v>50</v>
+      </c>
+      <c r="E44" t="s">
+        <v>117</v>
+      </c>
+      <c r="F44" s="7">
+        <v>60684</v>
+      </c>
+      <c r="G44" s="9">
+        <v>0</v>
+      </c>
+      <c r="H44" s="5">
+        <f t="shared" si="0"/>
+        <v>60684</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>55</v>
+      </c>
+      <c r="B45" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C45" t="s">
+        <v>6</v>
+      </c>
+      <c r="D45" t="s">
+        <v>51</v>
+      </c>
+      <c r="E45" t="s">
+        <v>117</v>
+      </c>
+      <c r="F45" s="7">
+        <v>8123</v>
+      </c>
+      <c r="G45" s="9">
+        <v>0</v>
+      </c>
+      <c r="H45" s="5">
+        <f t="shared" si="0"/>
+        <v>8123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>55</v>
+      </c>
+      <c r="B46" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C46" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" t="s">
+        <v>52</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46" s="7">
+        <v>30737</v>
+      </c>
+      <c r="G46" s="9">
+        <v>0</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" si="0"/>
+        <v>30737</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>55</v>
+      </c>
+      <c r="B47" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C47" t="s">
+        <v>6</v>
+      </c>
+      <c r="D47" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" t="s">
+        <v>117</v>
+      </c>
+      <c r="F47" s="7">
+        <v>21548</v>
+      </c>
+      <c r="G47" s="9">
+        <v>0</v>
+      </c>
+      <c r="H47" s="5">
+        <f t="shared" si="0"/>
+        <v>21548</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="2">
+        <v>45930</v>
+      </c>
+      <c r="C48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48" t="s">
+        <v>54</v>
+      </c>
+      <c r="E48" t="s">
+        <v>117</v>
+      </c>
+      <c r="F48" s="7">
+        <v>59056</v>
+      </c>
+      <c r="G48" s="9">
+        <v>0</v>
+      </c>
+      <c r="H48" s="5">
+        <f t="shared" si="0"/>
+        <v>59056</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="2">
+        <v>45401</v>
+      </c>
+      <c r="C49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D49" t="s">
+        <v>56</v>
+      </c>
+      <c r="E49" t="s">
+        <v>118</v>
+      </c>
+      <c r="F49" s="10">
+        <v>118000</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" ref="G49:G64" si="1">F49</f>
+        <v>118000</v>
+      </c>
+      <c r="H49" s="11">
+        <f>F49-G49</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>72</v>
+      </c>
+      <c r="B50" s="2">
+        <v>45401</v>
+      </c>
+      <c r="C50" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50" t="s">
+        <v>57</v>
+      </c>
+      <c r="E50" t="s">
+        <v>118</v>
+      </c>
+      <c r="F50" s="11">
+        <v>54312</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" si="1"/>
+        <v>54312</v>
+      </c>
+      <c r="H50" s="11">
+        <f t="shared" ref="H50:H65" si="2">F50-G50</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="2">
+        <v>45419</v>
+      </c>
+      <c r="C51" t="s">
+        <v>6</v>
+      </c>
+      <c r="D51" t="s">
+        <v>58</v>
+      </c>
+      <c r="E51" t="s">
+        <v>118</v>
+      </c>
+      <c r="F51" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H51" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45419</v>
+      </c>
+      <c r="C52" t="s">
+        <v>6</v>
+      </c>
+      <c r="D52" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" t="s">
+        <v>118</v>
+      </c>
+      <c r="F52" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G52" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H52" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>72</v>
+      </c>
+      <c r="B53" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C53" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53" t="s">
+        <v>60</v>
+      </c>
+      <c r="E53" t="s">
+        <v>118</v>
+      </c>
+      <c r="F53" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G53" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H53" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>72</v>
+      </c>
+      <c r="B54" s="2">
+        <v>45484</v>
+      </c>
+      <c r="C54" t="s">
+        <v>6</v>
+      </c>
+      <c r="D54" t="s">
+        <v>61</v>
+      </c>
+      <c r="E54" t="s">
+        <v>118</v>
+      </c>
+      <c r="F54" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G54" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H54" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>72</v>
+      </c>
+      <c r="B55" s="2">
+        <v>45486</v>
+      </c>
+      <c r="C55" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E55" t="s">
+        <v>118</v>
+      </c>
+      <c r="F55" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G55" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H55" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>72</v>
+      </c>
+      <c r="B56" s="2">
+        <v>45486</v>
+      </c>
+      <c r="C56" t="s">
+        <v>6</v>
+      </c>
+      <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G56" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H56" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C57" t="s">
+        <v>6</v>
+      </c>
+      <c r="D57" t="s">
+        <v>64</v>
+      </c>
+      <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G57" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H57" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>72</v>
+      </c>
+      <c r="B58" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C58" t="s">
+        <v>6</v>
+      </c>
+      <c r="D58" t="s">
+        <v>65</v>
+      </c>
+      <c r="E58" t="s">
+        <v>118</v>
+      </c>
+      <c r="F58" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G58" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H58" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" s="2">
+        <v>45566</v>
+      </c>
+      <c r="C59" t="s">
+        <v>6</v>
+      </c>
+      <c r="D59" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" t="s">
+        <v>118</v>
+      </c>
+      <c r="F59" s="11">
+        <v>236000</v>
+      </c>
+      <c r="G59" s="10">
+        <f t="shared" si="1"/>
+        <v>236000</v>
+      </c>
+      <c r="H59" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>72</v>
+      </c>
+      <c r="B60" s="2">
+        <v>45586</v>
+      </c>
+      <c r="C60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D60" t="s">
+        <v>67</v>
+      </c>
+      <c r="E60" t="s">
+        <v>118</v>
+      </c>
+      <c r="F60" s="11">
+        <v>192734</v>
+      </c>
+      <c r="G60" s="10">
+        <f t="shared" si="1"/>
+        <v>192734</v>
+      </c>
+      <c r="H60" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B61" s="2">
+        <v>45607</v>
+      </c>
+      <c r="C61" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G61" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H61" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C62" t="s">
+        <v>6</v>
+      </c>
+      <c r="D62" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" t="s">
+        <v>118</v>
+      </c>
+      <c r="F62" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G62" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H62" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>72</v>
+      </c>
+      <c r="B63" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C63" t="s">
+        <v>6</v>
+      </c>
+      <c r="D63" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" t="s">
+        <v>118</v>
+      </c>
+      <c r="F63" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G63" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H63" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>72</v>
+      </c>
+      <c r="B64" s="2">
+        <v>45717</v>
+      </c>
+      <c r="C64" t="s">
+        <v>6</v>
+      </c>
+      <c r="D64" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G64" s="10">
+        <f t="shared" si="1"/>
+        <v>118000</v>
+      </c>
+      <c r="H64" s="11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>72</v>
+      </c>
+      <c r="B65" s="2">
+        <v>45759</v>
+      </c>
+      <c r="C65" t="s">
+        <v>6</v>
+      </c>
+      <c r="D65" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" t="s">
+        <v>118</v>
+      </c>
+      <c r="F65" s="11">
+        <v>118000</v>
+      </c>
+      <c r="G65" s="10">
+        <v>0</v>
+      </c>
+      <c r="H65" s="11">
+        <f t="shared" si="2"/>
+        <v>118000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>84</v>
+      </c>
+      <c r="B66" s="2">
+        <v>45401</v>
+      </c>
+      <c r="C66" t="s">
+        <v>6</v>
+      </c>
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
+      <c r="E66" t="s">
+        <v>118</v>
+      </c>
+      <c r="F66" s="11">
+        <v>177000</v>
+      </c>
+      <c r="G66" s="10">
+        <f>F66</f>
+        <v>177000</v>
+      </c>
+      <c r="H66" s="11">
+        <f>F66-G66</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>84</v>
+      </c>
+      <c r="B67" s="2">
+        <v>45419</v>
+      </c>
+      <c r="C67" t="s">
+        <v>6</v>
+      </c>
+      <c r="D67" t="s">
+        <v>74</v>
+      </c>
+      <c r="E67" t="s">
+        <v>118</v>
+      </c>
+      <c r="F67" s="11">
+        <v>177000</v>
+      </c>
+      <c r="G67" s="10">
+        <f>F67</f>
+        <v>177000</v>
+      </c>
+      <c r="H67" s="11">
+        <f t="shared" ref="H67:H76" si="3">F67-G67</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>84</v>
+      </c>
+      <c r="B68" s="2">
+        <v>45439</v>
+      </c>
+      <c r="C68" t="s">
+        <v>6</v>
+      </c>
+      <c r="D68" t="s">
+        <v>75</v>
+      </c>
+      <c r="E68" t="s">
+        <v>118</v>
+      </c>
+      <c r="F68" s="11">
+        <v>786145.5</v>
+      </c>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="11">
+        <f t="shared" si="3"/>
+        <v>786145.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>84</v>
+      </c>
+      <c r="B69" s="2">
+        <v>45471</v>
+      </c>
+      <c r="C69" t="s">
+        <v>6</v>
+      </c>
+      <c r="D69" t="s">
+        <v>76</v>
+      </c>
+      <c r="E69" t="s">
+        <v>118</v>
+      </c>
+      <c r="F69" s="11">
+        <v>184080</v>
+      </c>
+      <c r="G69" s="10">
+        <f>F69</f>
+        <v>184080</v>
+      </c>
+      <c r="H69" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>84</v>
+      </c>
+      <c r="B70" s="2">
+        <v>45485</v>
+      </c>
+      <c r="C70" t="s">
+        <v>6</v>
+      </c>
+      <c r="D70" t="s">
+        <v>77</v>
+      </c>
+      <c r="E70" t="s">
+        <v>118</v>
+      </c>
+      <c r="F70" s="11">
+        <v>607464</v>
+      </c>
+      <c r="G70" s="10">
+        <v>0</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" si="3"/>
+        <v>607464</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" s="2">
+        <v>45530</v>
+      </c>
+      <c r="C71" t="s">
+        <v>6</v>
+      </c>
+      <c r="D71" t="s">
+        <v>78</v>
+      </c>
+      <c r="E71" t="s">
+        <v>118</v>
+      </c>
+      <c r="F71" s="11">
+        <v>177000</v>
+      </c>
+      <c r="G71" s="10">
+        <f>F71</f>
+        <v>177000</v>
+      </c>
+      <c r="H71" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>84</v>
+      </c>
+      <c r="B72" s="2">
+        <v>45566</v>
+      </c>
+      <c r="C72" t="s">
+        <v>6</v>
+      </c>
+      <c r="D72" t="s">
+        <v>79</v>
+      </c>
+      <c r="E72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" s="11">
+        <v>1068456.96</v>
+      </c>
+      <c r="G72" s="10">
+        <v>0</v>
+      </c>
+      <c r="H72" s="11">
+        <f>F72-G72</f>
+        <v>1068456.96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>84</v>
+      </c>
+      <c r="B73" s="2">
+        <v>45566</v>
+      </c>
+      <c r="C73" t="s">
+        <v>6</v>
+      </c>
+      <c r="D73" t="s">
+        <v>80</v>
+      </c>
+      <c r="E73" t="s">
+        <v>118</v>
+      </c>
+      <c r="F73" s="11">
+        <v>354000</v>
+      </c>
+      <c r="G73" s="10">
+        <f>F73</f>
+        <v>354000</v>
+      </c>
+      <c r="H73" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>84</v>
+      </c>
+      <c r="B74" s="2">
+        <v>45607</v>
+      </c>
+      <c r="C74" t="s">
+        <v>6</v>
+      </c>
+      <c r="D74" t="s">
+        <v>81</v>
+      </c>
+      <c r="E74" t="s">
+        <v>118</v>
+      </c>
+      <c r="F74" s="11">
+        <v>177000</v>
+      </c>
+      <c r="G74" s="10">
+        <f>F74</f>
+        <v>177000</v>
+      </c>
+      <c r="H74" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="2">
+        <v>45630</v>
+      </c>
+      <c r="C75" t="s">
+        <v>6</v>
+      </c>
+      <c r="D75" t="s">
+        <v>82</v>
+      </c>
+      <c r="E75" t="s">
+        <v>118</v>
+      </c>
+      <c r="F75" s="11">
+        <v>177000</v>
+      </c>
+      <c r="G75" s="10">
+        <f>F75</f>
+        <v>177000</v>
+      </c>
+      <c r="H75" s="11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="B76" s="2">
+        <v>45677</v>
+      </c>
+      <c r="C76" t="s">
+        <v>6</v>
+      </c>
+      <c r="D76" t="s">
+        <v>83</v>
+      </c>
+      <c r="E76" t="s">
+        <v>118</v>
+      </c>
+      <c r="F76" s="11">
+        <v>177000</v>
+      </c>
+      <c r="G76" s="10">
+        <v>0</v>
+      </c>
+      <c r="H76" s="11">
+        <f t="shared" si="3"/>
+        <v>177000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>98</v>
+      </c>
+      <c r="B77" s="2">
+        <v>45752</v>
+      </c>
+      <c r="C77" t="s">
+        <v>6</v>
+      </c>
+      <c r="D77" t="s">
+        <v>85</v>
+      </c>
+      <c r="E77" t="s">
+        <v>117</v>
+      </c>
+      <c r="F77" s="7">
+        <v>23742</v>
+      </c>
+      <c r="G77" s="9">
+        <f>F77</f>
+        <v>23742</v>
+      </c>
+      <c r="H77" s="5">
+        <f>F77-G77</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="2">
+        <v>45883</v>
+      </c>
+      <c r="C78" t="s">
+        <v>6</v>
+      </c>
+      <c r="D78" t="s">
+        <v>86</v>
+      </c>
+      <c r="E78" t="s">
+        <v>117</v>
+      </c>
+      <c r="F78" s="7">
+        <v>80500</v>
+      </c>
+      <c r="G78" s="9">
+        <f>F78</f>
+        <v>80500</v>
+      </c>
+      <c r="H78" s="5">
+        <f>F78-G78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>90</v>
+      </c>
+      <c r="B79" s="2">
+        <v>45371</v>
+      </c>
+      <c r="C79" t="s">
+        <v>6</v>
+      </c>
+      <c r="D79" t="s">
+        <v>87</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F79" s="11">
+        <v>52864</v>
+      </c>
+      <c r="G79" s="10">
+        <f>F79</f>
+        <v>52864</v>
+      </c>
+      <c r="H79" s="11">
+        <f>F79-G79</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+      <c r="B80" s="2">
+        <v>45846</v>
+      </c>
+      <c r="C80" t="s">
+        <v>6</v>
+      </c>
+      <c r="D80" t="s">
+        <v>88</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F80" s="11">
+        <v>72688</v>
+      </c>
+      <c r="G80" s="10">
+        <f>F80</f>
+        <v>72688</v>
+      </c>
+      <c r="H80" s="11">
+        <f t="shared" ref="H80:H81" si="4">F80-G80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>90</v>
+      </c>
+      <c r="B81" s="2">
+        <v>45938</v>
+      </c>
+      <c r="C81" t="s">
+        <v>6</v>
+      </c>
+      <c r="D81" t="s">
+        <v>89</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F81" s="11">
+        <v>161896</v>
+      </c>
+      <c r="G81" s="10">
+        <f>F81</f>
+        <v>161896</v>
+      </c>
+      <c r="H81" s="11">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>97</v>
+      </c>
+      <c r="B82" s="2">
+        <v>45805</v>
+      </c>
+      <c r="C82" t="s">
+        <v>6</v>
+      </c>
+      <c r="D82" t="s">
+        <v>91</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F82" s="7">
+        <v>16272</v>
+      </c>
+      <c r="G82" s="9">
+        <f t="shared" ref="G82:G87" si="5">F82</f>
+        <v>16272</v>
+      </c>
+      <c r="H82" s="5">
+        <f>F82-G82</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>97</v>
+      </c>
+      <c r="B83" s="2">
+        <v>45836</v>
+      </c>
+      <c r="C83" t="s">
+        <v>6</v>
+      </c>
+      <c r="D83" t="s">
+        <v>92</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F83" s="7">
+        <v>21552</v>
+      </c>
+      <c r="G83" s="9">
+        <f t="shared" si="5"/>
+        <v>21552</v>
+      </c>
+      <c r="H83" s="5">
+        <f t="shared" ref="H83:H89" si="6">F83-G83</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" s="2">
+        <v>45859</v>
+      </c>
+      <c r="C84" t="s">
+        <v>6</v>
+      </c>
+      <c r="D84" t="s">
+        <v>93</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F84" s="7">
+        <v>22080</v>
+      </c>
+      <c r="G84" s="9">
+        <f t="shared" si="5"/>
+        <v>22080</v>
+      </c>
+      <c r="H84" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" s="2">
+        <v>45870</v>
+      </c>
+      <c r="C85" t="s">
+        <v>6</v>
+      </c>
+      <c r="D85" t="s">
+        <v>94</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F85" s="7">
+        <v>4294</v>
+      </c>
+      <c r="G85" s="9">
+        <v>4294</v>
+      </c>
+      <c r="H85" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" s="2">
+        <v>45888</v>
+      </c>
+      <c r="C86" t="s">
+        <v>6</v>
+      </c>
+      <c r="D86" t="s">
+        <v>95</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F86" s="7">
+        <v>24048</v>
+      </c>
+      <c r="G86" s="9">
+        <f t="shared" si="5"/>
+        <v>24048</v>
+      </c>
+      <c r="H86" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" s="2">
+        <v>45928</v>
+      </c>
+      <c r="C87" t="s">
+        <v>6</v>
+      </c>
+      <c r="D87" t="s">
+        <v>96</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F87" s="7">
+        <v>26848</v>
+      </c>
+      <c r="G87" s="9">
+        <f t="shared" si="5"/>
+        <v>26848</v>
+      </c>
+      <c r="H87" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>99</v>
+      </c>
+      <c r="B88" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C88" t="s">
+        <v>6</v>
+      </c>
+      <c r="D88" t="s">
+        <v>46</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F88" s="7">
+        <v>38300</v>
+      </c>
+      <c r="G88" s="9">
+        <f>F88</f>
+        <v>38300</v>
+      </c>
+      <c r="H88" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A89" t="s">
+        <v>99</v>
+      </c>
+      <c r="B89" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C89" t="s">
+        <v>6</v>
+      </c>
+      <c r="D89" t="s">
+        <v>47</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>117</v>
+      </c>
+      <c r="F89" s="7">
+        <v>38300</v>
+      </c>
+      <c r="G89" s="9">
+        <f>F89</f>
+        <v>38300</v>
+      </c>
+      <c r="H89" s="5">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>114</v>
+      </c>
+      <c r="B90" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C90" t="s">
+        <v>6</v>
+      </c>
+      <c r="D90" t="s">
+        <v>100</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F90" s="11">
+        <v>603046</v>
+      </c>
+      <c r="G90" s="10">
+        <v>0</v>
+      </c>
+      <c r="H90" s="11">
+        <f>F90-G90</f>
+        <v>603046</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A91" t="s">
+        <v>114</v>
+      </c>
+      <c r="B91" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C91" t="s">
+        <v>6</v>
+      </c>
+      <c r="D91" t="s">
+        <v>101</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F91" s="11">
+        <v>394852</v>
+      </c>
+      <c r="G91" s="10">
+        <v>0</v>
+      </c>
+      <c r="H91" s="11">
+        <f t="shared" ref="H91:H103" si="7">F91-G91</f>
+        <v>394852</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>114</v>
+      </c>
+      <c r="B92" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C92" t="s">
+        <v>6</v>
+      </c>
+      <c r="D92" t="s">
+        <v>102</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F92" s="11">
+        <v>355367</v>
+      </c>
+      <c r="G92" s="10">
+        <v>0</v>
+      </c>
+      <c r="H92" s="11">
+        <f t="shared" si="7"/>
+        <v>355367</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C93" t="s">
+        <v>6</v>
+      </c>
+      <c r="D93" t="s">
+        <v>103</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F93" s="11">
+        <v>376904</v>
+      </c>
+      <c r="G93" s="10">
+        <v>0</v>
+      </c>
+      <c r="H93" s="11">
+        <f t="shared" si="7"/>
+        <v>376904</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>114</v>
+      </c>
+      <c r="B94" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C94" t="s">
+        <v>6</v>
+      </c>
+      <c r="D94" t="s">
+        <v>104</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F94" s="11">
+        <v>339214</v>
+      </c>
+      <c r="G94" s="10">
+        <v>0</v>
+      </c>
+      <c r="H94" s="11">
+        <f t="shared" si="7"/>
+        <v>339214</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>114</v>
+      </c>
+      <c r="B95" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C95" t="s">
+        <v>6</v>
+      </c>
+      <c r="D95" t="s">
+        <v>105</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F95" s="11">
+        <v>412799</v>
+      </c>
+      <c r="G95" s="10">
+        <v>0</v>
+      </c>
+      <c r="H95" s="11">
+        <f t="shared" si="7"/>
+        <v>412799</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>114</v>
+      </c>
+      <c r="B96" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C96" t="s">
+        <v>6</v>
+      </c>
+      <c r="D96" t="s">
+        <v>106</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F96" s="11">
+        <v>488180</v>
+      </c>
+      <c r="G96" s="10">
+        <v>0</v>
+      </c>
+      <c r="H96" s="11">
+        <f t="shared" si="7"/>
+        <v>488180</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>114</v>
+      </c>
+      <c r="B97" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C97" t="s">
+        <v>6</v>
+      </c>
+      <c r="D97" t="s">
+        <v>107</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F97" s="11">
+        <v>341008</v>
+      </c>
+      <c r="G97" s="10">
+        <v>0</v>
+      </c>
+      <c r="H97" s="11">
+        <f t="shared" si="7"/>
+        <v>341008</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>114</v>
+      </c>
+      <c r="B98" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C98" t="s">
+        <v>6</v>
+      </c>
+      <c r="D98" t="s">
+        <v>108</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F98" s="11">
+        <v>290755</v>
+      </c>
+      <c r="G98" s="10">
+        <v>0</v>
+      </c>
+      <c r="H98" s="11">
+        <f t="shared" si="7"/>
+        <v>290755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>114</v>
+      </c>
+      <c r="B99" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C99" t="s">
+        <v>6</v>
+      </c>
+      <c r="D99" t="s">
+        <v>109</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F99" s="11">
+        <v>323060</v>
+      </c>
+      <c r="G99" s="10">
+        <v>0</v>
+      </c>
+      <c r="H99" s="11">
+        <f t="shared" si="7"/>
+        <v>323060</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>114</v>
+      </c>
+      <c r="B100" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C100" t="s">
+        <v>6</v>
+      </c>
+      <c r="D100" t="s">
+        <v>110</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F100" s="11">
+        <v>250372</v>
+      </c>
+      <c r="G100" s="10">
+        <v>0</v>
+      </c>
+      <c r="H100" s="11">
+        <f t="shared" si="7"/>
+        <v>250372</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A101" t="s">
+        <v>114</v>
+      </c>
+      <c r="B101" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C101" t="s">
+        <v>6</v>
+      </c>
+      <c r="D101" t="s">
+        <v>111</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F101" s="11">
+        <v>341008</v>
+      </c>
+      <c r="G101" s="10">
+        <v>0</v>
+      </c>
+      <c r="H101" s="11">
+        <f t="shared" si="7"/>
+        <v>341008</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>114</v>
+      </c>
+      <c r="B102" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C102" t="s">
+        <v>6</v>
+      </c>
+      <c r="D102" t="s">
+        <v>112</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F102" s="11">
+        <v>412799</v>
+      </c>
+      <c r="G102" s="10">
+        <v>0</v>
+      </c>
+      <c r="H102" s="11">
+        <f t="shared" si="7"/>
+        <v>412799</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>114</v>
+      </c>
+      <c r="B103" s="2">
+        <v>45901</v>
+      </c>
+      <c r="C103" t="s">
+        <v>6</v>
+      </c>
+      <c r="D103" t="s">
+        <v>113</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="F103" s="11">
+        <v>341008</v>
+      </c>
+      <c r="G103" s="10">
+        <v>0</v>
+      </c>
+      <c r="H103" s="11">
+        <f t="shared" si="7"/>
+        <v>341008</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
